--- a/ゲームプレイリスト.xlsx
+++ b/ゲームプレイリスト.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\転職\Linkkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\gitWindows\WindowsVBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D876D20-A694-4C34-9952-0713FA5E3446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD5F7D5-9D52-4EE3-B4D9-BA4E73D3FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99A6EEC7-0F1B-4302-8668-157A7BE5DAE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲームプレイリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -56,10 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>良かったところ</t>
     <rPh sb="0" eb="1">
       <t>ヨ</t>
@@ -74,13 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイ期間</t>
-    <rPh sb="3" eb="5">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NIKKE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,6 +101,82 @@
   </si>
   <si>
     <t>世界のアソビ大全51</t>
+  </si>
+  <si>
+    <t>あつまれ どうぶつの森</t>
+    <rPh sb="10" eb="11">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポケットモンスター シールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTGアリーナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雀魂-じゃんたま-</t>
+    <rPh sb="0" eb="1">
+      <t>スズメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タマシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイオハザード RE:2</t>
+  </si>
+  <si>
+    <t>Friday the 13th: The Game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>New ポケモンスナップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jubeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ開始日</t>
+    <rPh sb="3" eb="6">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ終了日</t>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPS及びRPG</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -156,8 +222,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,24 +566,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAB3051-E324-4B2B-9583-C3E14759F181}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="22.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.9140625" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -519,48 +596,151 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44879</v>
+      </c>
+      <c r="E3" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45534</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="D4" s="2">
+        <v>44602</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44883</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21.456944444444446</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43104</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BD3765-8692-482F-9F3F-F06F6B62249E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>